--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>时间</t>
   </si>
@@ -22,9 +22,15 @@
     <t>转出地址</t>
   </si>
   <si>
+    <t>转出地址余额</t>
+  </si>
+  <si>
     <t>转入地址</t>
   </si>
   <si>
+    <t>转入地址归属</t>
+  </si>
+  <si>
     <t>数量</t>
   </si>
   <si>
@@ -34,16 +40,31 @@
     <t>操作人</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>区块查询</t>
+  </si>
+  <si>
+    <t>备注*</t>
   </si>
   <si>
     <t>0x2218E532C74D0794330A6f7aDa2840098E475E10</t>
   </si>
   <si>
+    <t>李盼</t>
+  </si>
+  <si>
     <t>初始化合约</t>
   </si>
   <si>
-    <t>李盼</t>
+    <t>https://etherscan.io/tx/0xc7b4ab8e41299b234db8b82ad569bea74f07736a0b5729c3d2f53b768d05e8d5</t>
+  </si>
+  <si>
+    <t>0x6733aece7a2fc46dbb4568619d1e0c2c95cb5bfb</t>
+  </si>
+  <si>
+    <t>转到币威钱包发糖包</t>
+  </si>
+  <si>
+    <t>https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8</t>
   </si>
 </sst>
 </file>
@@ -65,6 +86,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -105,14 +134,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,64 +542,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -599,19 +620,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,57 +641,60 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,24 +1016,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:G3"/>
+  <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="17.3303571428571" customWidth="1"/>
-    <col min="2" max="2" width="19.6607142857143" customWidth="1"/>
-    <col min="3" max="3" width="20.3303571428571" customWidth="1"/>
-    <col min="4" max="4" width="17.3303571428571" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="15.3303571428571" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="2" max="3" width="19.6607142857143" customWidth="1"/>
+    <col min="4" max="5" width="20.3303571428571" customWidth="1"/>
+    <col min="6" max="6" width="17.3303571428571" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="9" width="15.3303571428571" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1031,25 +1055,73 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>43564.7520833333</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+        <v>43564</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>1000000000</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>500000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>50000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>
+    <hyperlink ref="I3" r:id="rId2" display="https://etherscan.io/tx/0xc7b4ab8e41299b234db8b82ad569bea74f07736a0b5729c3d2f53b768d05e8d5"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/account.xlsx
+++ b/account.xlsx
@@ -72,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +110,30 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,20 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -145,29 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -176,6 +163,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -184,15 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,33 +207,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,37 +239,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,145 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +446,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +466,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -484,15 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,145 +535,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1019,7 +1012,7 @@
   <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1090,7 +1083,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>43564</v>
+        <v>43566</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>时间</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8</t>
+  </si>
+  <si>
+    <t>0xac3ffb13d2d07ffd5e40c6963aa787e7e1e2f798</t>
+  </si>
+  <si>
+    <t>bitcv测试地址</t>
+  </si>
+  <si>
+    <t>申请上币糖包</t>
   </si>
 </sst>
 </file>
@@ -72,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,45 +104,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +126,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -156,7 +150,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -164,12 +158,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -178,7 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,45 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,61 +248,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,121 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,11 +442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,7 +461,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,7 +485,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,21 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -512,6 +512,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,124 +544,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,22 +670,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J4"/>
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="17.3303571428571" customWidth="1"/>
     <col min="2" max="3" width="19.6607142857143" customWidth="1"/>
@@ -1089,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>500000</v>
+        <v>999500000</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1108,6 +1117,32 @@
       </c>
       <c r="I4" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>499900</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>时间</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>申请上币糖包</t>
+  </si>
+  <si>
+    <t>发糖包</t>
+  </si>
+  <si>
+    <t>抢到1000糖包</t>
   </si>
 </sst>
 </file>
@@ -81,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,6 +110,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -112,7 +125,105 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,114 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +254,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,169 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,41 +448,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,20 +485,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,153 +506,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,13 +1024,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.3303571428571" customWidth="1"/>
     <col min="2" max="3" width="19.6607142857143" customWidth="1"/>
@@ -1145,6 +1151,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>479900</v>
+      </c>
+      <c r="F6">
+        <v>20000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>480900</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -87,9 +87,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -110,22 +110,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,29 +180,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,10 +194,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,6 +210,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,14 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,37 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,10 +450,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -483,11 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,15 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -531,17 +535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,148 +550,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,13 +1024,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J7"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="17.3303571428571" customWidth="1"/>
     <col min="2" max="3" width="19.6607142857143" customWidth="1"/>
@@ -1191,6 +1191,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>470900</v>
+      </c>
+      <c r="F8">
+        <v>10000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13000"/>
+    <workbookView windowWidth="28000" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>时间</t>
   </si>
@@ -80,6 +80,36 @@
   </si>
   <si>
     <t>抢到1000糖包</t>
+  </si>
+  <si>
+    <t>领取糖包和退回的糖包</t>
+  </si>
+  <si>
+    <t>0x4b578c63936e1421523f2d33bf5a212f2517afb7</t>
+  </si>
+  <si>
+    <t>饺子名</t>
+  </si>
+  <si>
+    <t>群管理赠送</t>
+  </si>
+  <si>
+    <t>0x29fb5bc105b12b6417c086ca4b5b183530f6607e</t>
+  </si>
+  <si>
+    <t>真夏饺子好</t>
+  </si>
+  <si>
+    <t>0x693bd9a058a6b53bfde0f07003a3c55732d82448</t>
+  </si>
+  <si>
+    <t>饺子不敲代码</t>
+  </si>
+  <si>
+    <t>0xeceff12c13e12f3ae98b3e45e99395806578e207</t>
+  </si>
+  <si>
+    <t>吴亚男</t>
   </si>
 </sst>
 </file>
@@ -88,8 +118,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -123,13 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -138,6 +161,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -147,15 +231,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,77 +260,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,19 +290,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,157 +446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,26 +496,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,21 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -545,93 +551,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,31 +673,31 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,16 +706,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,19 +1054,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="17.3303571428571" customWidth="1"/>
     <col min="2" max="3" width="19.6607142857143" customWidth="1"/>
     <col min="4" max="5" width="20.3303571428571" customWidth="1"/>
     <col min="6" max="6" width="17.3303571428571" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="7" max="7" width="24.4017857142857" customWidth="1"/>
     <col min="8" max="9" width="15.3303571428571" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
@@ -1208,6 +1238,127 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>473400</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>2500</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>100000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>40000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>20000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>273400</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>40000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
         <v>11</v>
       </c>
     </row>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>时间</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>吴亚男</t>
+  </si>
+  <si>
+    <t>0x119e90c78c54b7e4f37216b9c8e5ff06efb1158e</t>
+  </si>
+  <si>
+    <t>伤</t>
   </si>
 </sst>
 </file>
@@ -118,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -153,6 +159,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -161,15 +174,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +213,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -199,6 +228,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -207,69 +257,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,19 +290,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +362,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,145 +452,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,16 +503,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +528,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,25 +568,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,145 +586,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1054,10 +1060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1271,7 +1277,6 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>23</v>
       </c>
@@ -1295,7 +1300,6 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11"/>
       <c r="D11" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1323,6 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>28</v>
       </c>
@@ -1359,6 +1362,32 @@
         <v>25</v>
       </c>
       <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>253400</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>20000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>时间</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>伤</t>
+  </si>
+  <si>
+    <t>0x8a25dfba874b9aed67739c25809759d1bf7fa53d</t>
+  </si>
+  <si>
+    <t>程</t>
+  </si>
+  <si>
+    <t>0x4c9a82e6d97fb431a9f8f7f1b778551c3f2498f7</t>
+  </si>
+  <si>
+    <t>montauk</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1391,6 +1403,58 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>233400</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>20000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>213400</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16">
+        <v>20000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>时间</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>montauk</t>
+  </si>
+  <si>
+    <t>0x6a0a64020a79a9a755559a337e87150e394ba204</t>
+  </si>
+  <si>
+    <t>饺子很忙</t>
   </si>
 </sst>
 </file>
@@ -136,9 +142,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -157,24 +163,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,111 +225,79 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,19 +308,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,163 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +505,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +541,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -540,15 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,26 +593,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,148 +604,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1455,6 +1461,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>193400</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>20000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>时间</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>饺子很忙</t>
+  </si>
+  <si>
+    <t>0x9ac5282fa6f80a71253bac418559d63af2a6602c</t>
+  </si>
+  <si>
+    <t>lionet</t>
   </si>
 </sst>
 </file>
@@ -142,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -163,6 +169,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -172,23 +200,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,6 +224,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,10 +239,53 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,76 +299,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,67 +314,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,115 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,32 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -576,6 +556,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,138 +605,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,22 +736,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1487,6 +1493,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>173400</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>20000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>时间</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>lionet</t>
+  </si>
+  <si>
+    <t>公众号文章糖包</t>
+  </si>
+  <si>
+    <t>0x5cc9891a751a290b561fd3e9c1e08280d7c98f9d</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -148,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -170,6 +179,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -177,9 +193,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,25 +246,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,7 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +293,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,65 +313,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,43 +329,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +455,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,115 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,8 +520,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,7 +554,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +585,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -581,153 +614,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,22 +745,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1519,6 +1528,52 @@
         <v>11</v>
       </c>
     </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>43593</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>163400</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>143400</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>20000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -1093,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1574,6 +1574,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>133400</v>
+      </c>
+      <c r="F21">
+        <v>10000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>时间</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>0x79769b7cb926fb7b7c78394fb7726ec568060b2a</t>
+  </si>
+  <si>
+    <t>shawn</t>
   </si>
 </sst>
 </file>
@@ -157,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,8 +198,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,36 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -253,31 +261,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +283,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -300,15 +307,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,13 +335,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,13 +389,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,145 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,30 +528,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,11 +558,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,144 +620,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,16 +751,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1594,6 +1600,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>43602</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>113400</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <v>20000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>时间</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>shawn</t>
+  </si>
+  <si>
+    <t>0x1d2e4cd24b7a7fbeee1ae2f7a0cfca2fa9654089</t>
+  </si>
+  <si>
+    <t>q群提出合理建议</t>
   </si>
 </sst>
 </file>
@@ -162,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,6 +204,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -206,11 +289,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,98 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,169 +347,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +534,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,22 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,17 +616,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,85 +631,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,55 +718,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,12 +776,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
@@ -1099,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J22"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1167,7 +1176,7 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1196,7 +1205,7 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1623,6 +1632,32 @@
         <v>25</v>
       </c>
       <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:8">
+      <c r="A23" s="1">
+        <v>43602</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>112400</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1173785966</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
         <v>11</v>
       </c>
     </row>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+  <si>
+    <t>常用地址</t>
+  </si>
+  <si>
+    <t>归属</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>0x2218E532C74D0794330A6f7aDa2840098E475E10</t>
+  </si>
+  <si>
+    <t>李盼</t>
+  </si>
+  <si>
+    <t>创世地址</t>
+  </si>
+  <si>
+    <t>0x6733aece7a2fc46dbb4568619d1e0c2c95cb5bfb</t>
+  </si>
+  <si>
+    <t>币威钱包地址</t>
+  </si>
   <si>
     <t>时间</t>
   </si>
@@ -46,19 +70,10 @@
     <t>备注*</t>
   </si>
   <si>
-    <t>0x2218E532C74D0794330A6f7aDa2840098E475E10</t>
-  </si>
-  <si>
-    <t>李盼</t>
-  </si>
-  <si>
     <t>初始化合约</t>
   </si>
   <si>
     <t>https://etherscan.io/tx/0xc7b4ab8e41299b234db8b82ad569bea74f07736a0b5729c3d2f53b768d05e8d5</t>
-  </si>
-  <si>
-    <t>0x6733aece7a2fc46dbb4568619d1e0c2c95cb5bfb</t>
   </si>
   <si>
     <t>转到币威钱包发糖包</t>
@@ -169,8 +184,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -204,6 +219,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -213,15 +243,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,25 +274,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +315,14 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,51 +340,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -341,13 +356,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,19 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,127 +518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +557,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,7 +566,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,17 +601,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,13 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,85 +646,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,37 +733,37 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,16 +772,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:J23"/>
+  <dimension ref="A3:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1125,387 +1140,158 @@
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>43564</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
         <v>1000000000</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
         <v>43566</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>999500000</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
         <v>50000</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>43572</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>499900</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>43574</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>479900</v>
-      </c>
-      <c r="F6">
-        <v>20000</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>43574</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>480900</v>
-      </c>
-      <c r="F7">
-        <v>1000</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>43579</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>470900</v>
-      </c>
-      <c r="F8">
-        <v>10000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>473400</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>2500</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>100000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <v>40000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>20000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>43590</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>273400</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>40000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>43591</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>253400</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <v>20000</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>43591</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>233400</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15">
-        <v>20000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>43591</v>
+        <v>43572</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>213400</v>
+        <v>499900</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>43591</v>
+        <v>43574</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>193400</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
+        <v>479900</v>
       </c>
       <c r="F17">
         <v>20000</v>
@@ -1514,157 +1300,419 @@
         <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>43591</v>
+        <v>43574</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>173400</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
+        <v>480900</v>
       </c>
       <c r="F18">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>43593</v>
+        <v>43579</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>163400</v>
+        <v>470900</v>
       </c>
       <c r="F19">
         <v>10000</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>43597</v>
+        <v>43590</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>143400</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
+        <v>473400</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>43597</v>
+        <v>43590</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>133400</v>
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>43602</v>
+        <v>43590</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>113400</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F22">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:8">
       <c r="A23" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>20000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>273400</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>40000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>253400</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>20000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>233400</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>20000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>213400</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>20000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>193400</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>20000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>173400</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29">
+        <v>20000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>43593</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>163400</v>
+      </c>
+      <c r="F30">
+        <v>10000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>143400</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31">
+        <v>20000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>133400</v>
+      </c>
+      <c r="F32">
+        <v>10000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
         <v>43602</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>113400</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33">
+        <v>20000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>43602</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
         <v>112400</v>
       </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2">
         <v>1173785966</v>
       </c>
-      <c r="F23">
+      <c r="F34">
         <v>1000</v>
       </c>
-      <c r="G23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>
-    <hyperlink ref="I3" r:id="rId2" display="https://etherscan.io/tx/0xc7b4ab8e41299b234db8b82ad569bea74f07736a0b5729c3d2f53b768d05e8d5"/>
+    <hyperlink ref="I15" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>
+    <hyperlink ref="I14" r:id="rId2" display="https://etherscan.io/tx/0xc7b4ab8e41299b234db8b82ad569bea74f07736a0b5729c3d2f53b768d05e8d5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>常用地址</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>q群提出合理建议</t>
+  </si>
+  <si>
+    <t>0xddb5e3d1fcfbb640dfa652562db27cfa061fbad2</t>
+  </si>
+  <si>
+    <t>4happymeatball</t>
+  </si>
+  <si>
+    <t>曾经提交pr的赠送</t>
   </si>
 </sst>
 </file>
@@ -183,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -219,6 +228,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -235,10 +259,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,30 +284,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,50 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -340,6 +327,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -356,181 +365,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +566,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,22 +590,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,21 +622,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -641,129 +635,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,16 +781,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:J34"/>
+  <dimension ref="A3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1709,6 +1718,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>43613</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>82400</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>30000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -194,8 +194,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -215,14 +215,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,17 +236,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,14 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -275,6 +261,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -291,6 +285,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -299,6 +300,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,9 +328,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,27 +343,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,13 +365,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,162 +540,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,15 +550,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -588,6 +579,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -610,13 +612,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,144 +650,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,22 +781,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:J35"/>
+  <dimension ref="A3:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1744,6 +1744,26 @@
         <v>4</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>72400</v>
+      </c>
+      <c r="F36">
+        <v>10000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16000"/>
+    <workbookView windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
   <si>
     <t>常用地址</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>币威钱包地址</t>
+  </si>
+  <si>
+    <t>0x35f084f1ddc0d8d09a6ed9e565c7be5e52541d34</t>
+  </si>
+  <si>
+    <t>callhh陈辉煌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH  以太坊地址 </t>
   </si>
   <si>
     <t>时间</t>
@@ -193,9 +202,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -229,7 +238,82 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -244,14 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -260,9 +336,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,80 +358,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -359,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,65 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -630,8 +580,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,153 +611,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -810,60 +819,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1130,22 +1139,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.15833333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.3303571428571" customWidth="1"/>
-    <col min="2" max="3" width="19.6607142857143" customWidth="1"/>
-    <col min="4" max="5" width="20.3303571428571" customWidth="1"/>
-    <col min="6" max="6" width="17.3303571428571" customWidth="1"/>
-    <col min="7" max="7" width="24.4017857142857" customWidth="1"/>
-    <col min="8" max="9" width="15.3303571428571" customWidth="1"/>
+    <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
+    <col min="2" max="3" width="19.6583333333333" customWidth="1"/>
+    <col min="4" max="5" width="20.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="24.4" customWidth="1"/>
+    <col min="8" max="9" width="15.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1182,36 +1191,47 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1228,13 +1248,13 @@
         <v>1000000000</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1257,13 +1277,13 @@
         <v>50000</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1277,16 +1297,16 @@
         <v>499900</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -1306,7 +1326,7 @@
         <v>20000</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -1326,7 +1346,7 @@
         <v>1000</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -1346,7 +1366,7 @@
         <v>10000</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -1369,7 +1389,7 @@
         <v>2500</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -1383,16 +1403,16 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F21">
         <v>100000</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -1406,16 +1426,16 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F22">
         <v>40000</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -1429,16 +1449,16 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F23">
         <v>20000</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -1455,16 +1475,16 @@
         <v>273400</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>40000</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -1481,16 +1501,16 @@
         <v>253400</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>20000</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -1507,16 +1527,16 @@
         <v>233400</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F26">
         <v>20000</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -1533,16 +1553,16 @@
         <v>213400</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F27">
         <v>20000</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -1559,16 +1579,16 @@
         <v>193400</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>20000</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -1585,16 +1605,16 @@
         <v>173400</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F29">
         <v>20000</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -1614,7 +1634,7 @@
         <v>10000</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -1631,16 +1651,16 @@
         <v>143400</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F31">
         <v>20000</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -1660,7 +1680,7 @@
         <v>10000</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -1677,16 +1697,16 @@
         <v>113400</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>20000</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -1703,7 +1723,7 @@
         <v>112400</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2">
         <v>1173785966</v>
@@ -1712,7 +1732,7 @@
         <v>1000</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -1729,16 +1749,16 @@
         <v>82400</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <v>30000</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -1758,7 +1778,7 @@
         <v>10000</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820"/>
+    <workbookView windowWidth="28000" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>常用地址</t>
   </si>
@@ -37,7 +37,7 @@
     <t>0x6733aece7a2fc46dbb4568619d1e0c2c95cb5bfb</t>
   </si>
   <si>
-    <t>币威钱包地址</t>
+    <t>群主</t>
   </si>
   <si>
     <t>0x35f084f1ddc0d8d09a6ed9e565c7be5e52541d34</t>
@@ -46,7 +46,7 @@
     <t>callhh陈辉煌</t>
   </si>
   <si>
-    <t xml:space="preserve">ETH  以太坊地址 </t>
+    <t>管理员</t>
   </si>
   <si>
     <t>时间</t>
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -238,23 +238,70 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -290,6 +330,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -299,63 +353,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -368,6 +368,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,25 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,145 +530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +559,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,8 +588,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -588,11 +599,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +621,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,24 +641,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,148 +664,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -819,60 +819,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1139,22 +1139,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A3:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15833333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
-    <col min="2" max="3" width="19.6583333333333" customWidth="1"/>
-    <col min="4" max="5" width="20.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="24.4" customWidth="1"/>
-    <col min="8" max="9" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.3303571428571" customWidth="1"/>
+    <col min="2" max="3" width="19.6607142857143" customWidth="1"/>
+    <col min="4" max="5" width="20.3303571428571" customWidth="1"/>
+    <col min="6" max="6" width="17.3303571428571" customWidth="1"/>
+    <col min="7" max="7" width="24.4017857142857" customWidth="1"/>
+    <col min="8" max="9" width="15.3303571428571" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>常用地址</t>
   </si>
@@ -46,7 +46,7 @@
     <t>callhh陈辉煌</t>
   </si>
   <si>
-    <t>管理员</t>
+    <t>管理员陈辉煌</t>
   </si>
   <si>
     <t>时间</t>
@@ -55,7 +55,7 @@
     <t>转出地址</t>
   </si>
   <si>
-    <t>转出地址余额</t>
+    <t>转出后地址余额</t>
   </si>
   <si>
     <t>转入地址</t>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>曾经提交pr的赠送</t>
+  </si>
+  <si>
+    <t>第一次的运营总工资</t>
   </si>
 </sst>
 </file>
@@ -201,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -230,8 +233,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,36 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -283,6 +304,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -291,73 +341,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,181 +371,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +569,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,22 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,60 +636,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,67 +688,67 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,55 +760,55 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:J36"/>
+  <dimension ref="A3:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1784,6 +1787,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>54900</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>17500</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8820"/>
+    <workbookView windowWidth="28000" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>时间</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>管理员-贾明辉</t>
+  </si>
+  <si>
+    <t>0x94cc85b5e8122d1b01a8b2a99bbf2e482080df65</t>
+  </si>
+  <si>
+    <t>whosmyqueen</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -235,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -266,21 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,76 +287,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,9 +310,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,7 +341,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,19 +416,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,19 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,139 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,42 +613,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -663,11 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +664,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -701,157 +696,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,69 +873,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1196,65 +1199,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15833333333333" defaultRowHeight="22" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="22" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.6583333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.6607142857143" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="5" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="5" width="20.3303571428571" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="23.125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="15.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="15.3303571428571" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:9">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>43564</v>
       </c>
       <c r="D2" t="s">
@@ -1272,12 +1275,12 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>43566</v>
       </c>
       <c r="B3" t="s">
@@ -1301,12 +1304,12 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>43572</v>
       </c>
       <c r="B4" t="s">
@@ -1332,7 +1335,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>43574</v>
       </c>
       <c r="B5" t="s">
@@ -1352,7 +1355,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>43574</v>
       </c>
       <c r="B6" t="s">
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>43579</v>
       </c>
       <c r="B7" t="s">
@@ -1392,7 +1395,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>43590</v>
       </c>
       <c r="B8" t="s">
@@ -1415,7 +1418,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>43590</v>
       </c>
       <c r="B9" t="s">
@@ -1438,7 +1441,7 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>43590</v>
       </c>
       <c r="B10" t="s">
@@ -1461,7 +1464,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>43590</v>
       </c>
       <c r="B11" t="s">
@@ -1484,7 +1487,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>43590</v>
       </c>
       <c r="B12" t="s">
@@ -1510,7 +1513,7 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>43591</v>
       </c>
       <c r="B13" t="s">
@@ -1536,7 +1539,7 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>43591</v>
       </c>
       <c r="B14" t="s">
@@ -1562,7 +1565,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>43591</v>
       </c>
       <c r="B15" t="s">
@@ -1588,7 +1591,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>43591</v>
       </c>
       <c r="B16" t="s">
@@ -1614,7 +1617,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>43591</v>
       </c>
       <c r="B17" t="s">
@@ -1640,7 +1643,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>43593</v>
       </c>
       <c r="B18" t="s">
@@ -1660,7 +1663,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>43597</v>
       </c>
       <c r="B19" t="s">
@@ -1686,7 +1689,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>43597</v>
       </c>
       <c r="B20" t="s">
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>43602</v>
       </c>
       <c r="B21" t="s">
@@ -1732,7 +1735,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>43602</v>
       </c>
       <c r="B22" t="s">
@@ -1744,7 +1747,7 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>1173785966</v>
       </c>
       <c r="F22">
@@ -1758,7 +1761,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>43613</v>
       </c>
       <c r="B23" t="s">
@@ -1784,7 +1787,7 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>43615</v>
       </c>
       <c r="B24" t="s">
@@ -1804,7 +1807,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>43616</v>
       </c>
       <c r="B25" t="s">
@@ -1830,7 +1833,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>43618</v>
       </c>
       <c r="B26" t="s">
@@ -1853,7 +1856,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>43618</v>
       </c>
       <c r="B27" t="s">
@@ -1873,6 +1876,32 @@
       </c>
       <c r="H27" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="5">
+        <v>43628</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>24900</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>30000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1911,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -1928,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -1939,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -1947,10 +1976,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -1961,10 +1990,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -1975,10 +2004,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/account.xlsx
+++ b/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16020"/>
+    <workbookView windowWidth="28000" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="JZT账本" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>时间</t>
   </si>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>whosmyqueen</t>
+  </si>
+  <si>
+    <t>10000-2000-500=7500</t>
+  </si>
+  <si>
+    <t>发出糖宝10000个，退回2000，自领500</t>
+  </si>
+  <si>
+    <t>转入币威钱包待用</t>
+  </si>
+  <si>
+    <t>https://etherscan.io/tx/0x1386734738159aa6274e1d6463e0db279b6f03199794576b35c2df2983f07610</t>
   </si>
   <si>
     <t>常用地址</t>
@@ -242,9 +254,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -271,6 +283,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -278,8 +305,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -308,9 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,15 +358,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,28 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -377,33 +403,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -422,25 +434,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,90 +602,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -543,60 +609,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,23 +625,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,18 +672,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,11 +698,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,152 +724,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,6 +892,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,10 +1218,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
@@ -1904,10 +1919,65 @@
         <v>11</v>
       </c>
     </row>
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" s="5">
+        <v>43629</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>17400</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A30" s="5">
+        <v>43796</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>999000000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>500000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="https://etherscan.io/tx/0x8f6a619c242ebfc86eba0ebddee7fee63fd10ccfadaef99b74d629d2d504f7c8"/>
     <hyperlink ref="I2" r:id="rId2" display="https://etherscan.io/tx/0xc7b4ab8e41299b234db8b82ad569bea74f07736a0b5729c3d2f53b768d05e8d5"/>
+    <hyperlink ref="I30" r:id="rId3" display="https://etherscan.io/tx/0x1386734738159aa6274e1d6463e0db279b6f03199794576b35c2df2983f07610"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1940,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
@@ -1957,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -1968,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="2:4">
@@ -1976,10 +2046,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
@@ -1990,10 +2060,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
@@ -2004,10 +2074,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
